--- a/data/trans_dic/P36BPD13_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Edad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.8776919646560917</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.865599309855473</v>
+        <v>0.8655993098554727</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.872035432384158</v>
+        <v>0.8720354323841579</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8141819323205637</v>
+        <v>0.814880249588618</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8050996957776158</v>
+        <v>0.8120002069294385</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8309220293192534</v>
+        <v>0.8275274965843904</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9193972088010405</v>
+        <v>0.9231233106090411</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9082118678184986</v>
+        <v>0.9101671981851566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9064416070307517</v>
+        <v>0.9019678515596482</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7675291777142015</v>
+        <v>0.7680760574905355</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8641059356278757</v>
+        <v>0.8647679509106713</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8278796896751913</v>
+        <v>0.8278319853088429</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8656319592648893</v>
+        <v>0.8620611984940347</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9221198992581785</v>
+        <v>0.9205577703134837</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8839681814352162</v>
+        <v>0.8829008020134318</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.861334404298755</v>
+        <v>0.8613344042987549</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8534060578664614</v>
+        <v>0.8534060578664613</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.8573659305521498</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8272731019200188</v>
+        <v>0.8271282451867087</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8259977773708208</v>
+        <v>0.8284622900905739</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.835196094491826</v>
+        <v>0.8374765943033005</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8903838824155788</v>
+        <v>0.889924322643399</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8768142978096856</v>
+        <v>0.8749288276549994</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8766601571768027</v>
+        <v>0.8766267541684762</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.8524380403376396</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8749630081650578</v>
+        <v>0.8749630081650579</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.8639577689256426</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8235834874924984</v>
+        <v>0.8225995005923943</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8543313594076913</v>
+        <v>0.8549982116455445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8453206554574507</v>
+        <v>0.8451626114207986</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8804147868663228</v>
+        <v>0.8803812284799079</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8945265107124538</v>
+        <v>0.8926957585777342</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8799955859136781</v>
+        <v>0.8796820803749871</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.8722114847015461</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8395975388954252</v>
+        <v>0.8395975388954251</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7735137217421131</v>
+        <v>0.7725147150332253</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8474629013873014</v>
+        <v>0.8494408533876244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8189878500916038</v>
+        <v>0.8190187725226842</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8366771532586083</v>
+        <v>0.8358706462076695</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8920339411979408</v>
+        <v>0.8939831452142687</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8584829719631308</v>
+        <v>0.8579256238930846</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8330701752072605</v>
+        <v>0.8330701752072603</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.9005310855369786</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.868214637850061</v>
+        <v>0.8682146378500613</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7986036017336179</v>
+        <v>0.7977005469277803</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8776353884465146</v>
+        <v>0.8768303929342376</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8494647896169519</v>
+        <v>0.8482181968447515</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8638275892205466</v>
+        <v>0.8595901828213964</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.920131813039036</v>
+        <v>0.9210000690244308</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8880912850660365</v>
+        <v>0.8867953958615392</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8479106573670734</v>
+        <v>0.8494371850230853</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8667339690232113</v>
+        <v>0.8650130202996763</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8689038938880453</v>
+        <v>0.8675506961628858</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9129674708451833</v>
+        <v>0.9149730754830465</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9108889882303993</v>
+        <v>0.9104426449139759</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9055996299812883</v>
+        <v>0.9044619144700907</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.845326425780371</v>
+        <v>0.8453264257803711</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.8776239074018507</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8619083928919502</v>
+        <v>0.8619083928919503</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.829873321678135</v>
+        <v>0.8322776823095459</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8678371637941322</v>
+        <v>0.8669858608423148</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8529940363236866</v>
+        <v>0.8535154489204244</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8570653298676769</v>
+        <v>0.8587730435523189</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8875238759770414</v>
+        <v>0.8864671590060592</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8703435441922889</v>
+        <v>0.8701367789118254</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>332018</v>
+        <v>332302</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>288546</v>
+        <v>291019</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>636646</v>
+        <v>634045</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>374924</v>
+        <v>376443</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>325501</v>
+        <v>326202</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>694508</v>
+        <v>691081</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>365078</v>
+        <v>365338</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>427284</v>
+        <v>427611</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>803154</v>
+        <v>803108</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>411740</v>
+        <v>410042</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>455971</v>
+        <v>455198</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>857568</v>
+        <v>856532</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>510959</v>
+        <v>510870</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>511279</v>
+        <v>512805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1032826</v>
+        <v>1035646</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>549939</v>
+        <v>549656</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>542734</v>
+        <v>541567</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1084102</v>
+        <v>1084060</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>573200</v>
+        <v>572515</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>622397</v>
+        <v>622883</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1204161</v>
+        <v>1203936</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>612754</v>
+        <v>612730</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>651680</v>
+        <v>650347</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1253555</v>
+        <v>1253109</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>467655</v>
+        <v>467051</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>514409</v>
+        <v>515610</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>992273</v>
+        <v>992310</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>505842</v>
+        <v>505355</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>541464</v>
+        <v>542647</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1040124</v>
+        <v>1039449</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>321054</v>
+        <v>320691</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>383702</v>
+        <v>383350</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>712888</v>
+        <v>711842</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>347275</v>
+        <v>345572</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>402282</v>
+        <v>402661</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>745304</v>
+        <v>744216</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>261019</v>
+        <v>261489</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>399161</v>
+        <v>398369</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>667642</v>
+        <v>666603</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>281046</v>
+        <v>281663</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>419496</v>
+        <v>419291</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>695838</v>
+        <v>694964</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2914113</v>
+        <v>2922556</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3215438</v>
+        <v>3212284</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6155744</v>
+        <v>6159507</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3009598</v>
+        <v>3015594</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3288380</v>
+        <v>3284465</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6280949</v>
+        <v>6279457</v>
       </c>
     </row>
     <row r="36">
